--- a/usgs-sediment/harpeth_river_USGS.xlsx
+++ b/usgs-sediment/harpeth_river_USGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moyoa\Documents\GitHub\MATLAB_Functions\usgs-sediment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C04656-3FBE-4D3F-8B60-6E914B768D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBC1E6-0725-4DD1-ACB6-D47D69BACFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-4392" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{B5D21F95-566D-44EE-AF36-F6105D2006C2}"/>
+    <workbookView xWindow="-23148" yWindow="-4392" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{B5D21F95-566D-44EE-AF36-F6105D2006C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Variable_Info" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="240">
   <si>
     <t>agency_cd</t>
   </si>
@@ -762,17 +762,15 @@
   <si>
     <t>S</t>
   </si>
-  <si>
-    <t>&lt;0.5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mmm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -811,12 +809,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3467,8 +3468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7818C5EF-33CE-424D-A715-17D27A86FEE1}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4540,8 +4542,8 @@
   <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C2130"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40782,9 +40784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71537EC4-1369-4D3D-9549-8752C3492659}">
   <dimension ref="A1:AS195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40949,9 +40951,10 @@
       <c r="E2" t="s">
         <v>239</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>11</v>
       </c>
+      <c r="G2" s="7"/>
       <c r="Y2">
         <v>900</v>
       </c>
@@ -40972,10 +40975,10 @@
       <c r="E3" t="s">
         <v>239</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>305</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>865</v>
       </c>
       <c r="Y3">
@@ -41007,10 +41010,10 @@
       <c r="E4" t="s">
         <v>239</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>423</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>865</v>
       </c>
       <c r="Y4">
@@ -41042,10 +41045,10 @@
       <c r="E5" t="s">
         <v>239</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>428</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>865</v>
       </c>
       <c r="Y5">
@@ -41077,10 +41080,10 @@
       <c r="E6" t="s">
         <v>239</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>122</v>
       </c>
       <c r="Y6">
@@ -41103,10 +41106,10 @@
       <c r="E7" t="s">
         <v>239</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>16</v>
       </c>
       <c r="Y7">
@@ -41129,10 +41132,10 @@
       <c r="E8" t="s">
         <v>239</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>16</v>
       </c>
       <c r="Y8">
@@ -41155,10 +41158,10 @@
       <c r="E9" t="s">
         <v>239</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>16</v>
       </c>
       <c r="Y9">
@@ -41181,10 +41184,10 @@
       <c r="E10" t="s">
         <v>239</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>16</v>
       </c>
       <c r="Y10">
@@ -41207,10 +41210,10 @@
       <c r="E11" t="s">
         <v>239</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>16</v>
       </c>
       <c r="Y11">
@@ -41233,10 +41236,10 @@
       <c r="E12" t="s">
         <v>239</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>7</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>60</v>
       </c>
       <c r="Y12">
@@ -41259,10 +41262,10 @@
       <c r="E13" t="s">
         <v>239</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>16</v>
       </c>
       <c r="Y13">
@@ -41285,10 +41288,10 @@
       <c r="E14" t="s">
         <v>239</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>61</v>
       </c>
       <c r="Y14">
@@ -41311,10 +41314,10 @@
       <c r="E15" t="s">
         <v>239</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>269</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>141</v>
       </c>
       <c r="Y15">
@@ -41337,10 +41340,10 @@
       <c r="E16" t="s">
         <v>239</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>212</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>59</v>
       </c>
       <c r="Y16">
@@ -41363,10 +41366,10 @@
       <c r="E17" t="s">
         <v>239</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>19</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>5.8</v>
       </c>
       <c r="Y17">
@@ -41389,10 +41392,10 @@
       <c r="E18" t="s">
         <v>239</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="Y18">
@@ -41415,10 +41418,10 @@
       <c r="E19" t="s">
         <v>239</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>11</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y19">
@@ -41441,10 +41444,10 @@
       <c r="E20" t="s">
         <v>239</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>54</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>8</v>
       </c>
       <c r="Y20">
@@ -41467,10 +41470,10 @@
       <c r="E21" t="s">
         <v>239</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>54</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>12</v>
       </c>
       <c r="Y21">
@@ -41493,10 +41496,10 @@
       <c r="E22" t="s">
         <v>239</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>89</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>12</v>
       </c>
       <c r="Y22">
@@ -41519,10 +41522,10 @@
       <c r="E23" t="s">
         <v>239</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>63</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>36</v>
       </c>
       <c r="Y23">
@@ -41545,10 +41548,10 @@
       <c r="E24" t="s">
         <v>239</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>56</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>1.4</v>
       </c>
       <c r="H24">
@@ -41574,10 +41577,10 @@
       <c r="E25" t="s">
         <v>239</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>55</v>
       </c>
       <c r="H25">
@@ -41603,10 +41606,10 @@
       <c r="E26" t="s">
         <v>239</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>118</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>334</v>
       </c>
       <c r="H26">
@@ -41632,10 +41635,10 @@
       <c r="E27" t="s">
         <v>239</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>140</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>790</v>
       </c>
       <c r="H27">
@@ -41661,10 +41664,10 @@
       <c r="E28" t="s">
         <v>239</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>115</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>790</v>
       </c>
       <c r="H28">
@@ -41690,10 +41693,10 @@
       <c r="E29" t="s">
         <v>239</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>35</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>712</v>
       </c>
       <c r="H29">
@@ -41719,10 +41722,10 @@
       <c r="E30" t="s">
         <v>239</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>51</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>712</v>
       </c>
       <c r="H30">
@@ -41748,10 +41751,10 @@
       <c r="E31" t="s">
         <v>239</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>39</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>170</v>
       </c>
       <c r="H31">
@@ -41777,10 +41780,10 @@
       <c r="E32" t="s">
         <v>239</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>21</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>170</v>
       </c>
       <c r="H32">
@@ -41806,10 +41809,10 @@
       <c r="E33" t="s">
         <v>239</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>77</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>1260</v>
       </c>
       <c r="H33">
@@ -41838,10 +41841,10 @@
       <c r="E34" t="s">
         <v>239</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>204</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>1260</v>
       </c>
       <c r="H34">
@@ -41870,10 +41873,10 @@
       <c r="E35" t="s">
         <v>239</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>70</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>690</v>
       </c>
       <c r="H35">
@@ -41902,10 +41905,10 @@
       <c r="E36" t="s">
         <v>239</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>58</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <v>690</v>
       </c>
       <c r="H36">
@@ -41934,10 +41937,10 @@
       <c r="E37" t="s">
         <v>239</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>34</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>223</v>
       </c>
       <c r="H37">
@@ -41966,10 +41969,10 @@
       <c r="E38" t="s">
         <v>239</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>92</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>156</v>
       </c>
       <c r="H38">
@@ -41998,10 +42001,10 @@
       <c r="E39" t="s">
         <v>239</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <v>211</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>53</v>
       </c>
       <c r="H39">
@@ -42030,10 +42033,10 @@
       <c r="E40" t="s">
         <v>239</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="7">
         <v>274</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>2.9</v>
       </c>
       <c r="H40">
@@ -42059,10 +42062,10 @@
       <c r="E41" t="s">
         <v>239</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>18</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>0.46</v>
       </c>
       <c r="H41">
@@ -42088,10 +42091,10 @@
       <c r="E42" t="s">
         <v>239</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7">
         <v>88</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="7">
         <v>3.8</v>
       </c>
       <c r="H42">
@@ -42117,10 +42120,10 @@
       <c r="E43" t="s">
         <v>239</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="7">
         <v>97</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="7">
         <v>3.8</v>
       </c>
       <c r="H43">
@@ -42146,10 +42149,10 @@
       <c r="E44" t="s">
         <v>239</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="7">
         <v>82</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <v>125</v>
       </c>
       <c r="Y44">
@@ -42172,10 +42175,10 @@
       <c r="E45" t="s">
         <v>239</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="7">
         <v>632</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <v>1280</v>
       </c>
       <c r="H45">
@@ -42198,10 +42201,10 @@
       <c r="E46" t="s">
         <v>239</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="7">
         <v>1030</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="7">
         <v>1280</v>
       </c>
       <c r="H46">
@@ -42224,10 +42227,10 @@
       <c r="E47" t="s">
         <v>239</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="7">
         <v>394</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="7">
         <v>1280</v>
       </c>
       <c r="H47">
@@ -42250,10 +42253,10 @@
       <c r="E48" t="s">
         <v>239</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="7">
         <v>252</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="7">
         <v>1280</v>
       </c>
       <c r="H48">
@@ -42276,10 +42279,10 @@
       <c r="E49" t="s">
         <v>239</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="7">
         <v>293</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="7">
         <v>1280</v>
       </c>
       <c r="H49">
@@ -42302,10 +42305,10 @@
       <c r="E50" t="s">
         <v>239</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="7">
         <v>67</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="7">
         <v>593</v>
       </c>
       <c r="H50">
@@ -42328,10 +42331,10 @@
       <c r="E51" t="s">
         <v>239</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="7">
         <v>77</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="7">
         <v>783</v>
       </c>
       <c r="H51">
@@ -42354,10 +42357,10 @@
       <c r="E52" t="s">
         <v>239</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="7">
         <v>135</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="7">
         <v>137</v>
       </c>
       <c r="H52">
@@ -42380,10 +42383,10 @@
       <c r="E53" t="s">
         <v>239</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="7">
         <v>85</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="7">
         <v>174</v>
       </c>
       <c r="H53">
@@ -42406,10 +42409,10 @@
       <c r="E54" t="s">
         <v>239</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="7">
         <v>431</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="7">
         <v>174</v>
       </c>
       <c r="H54">
@@ -42432,10 +42435,10 @@
       <c r="E55" t="s">
         <v>239</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="7">
         <v>141</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="7">
         <v>403</v>
       </c>
       <c r="H55">
@@ -42458,10 +42461,10 @@
       <c r="E56" t="s">
         <v>239</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="7">
         <v>285</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="7">
         <v>403</v>
       </c>
       <c r="H56">
@@ -42484,10 +42487,10 @@
       <c r="E57" t="s">
         <v>239</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="7">
         <v>277</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="7">
         <v>403</v>
       </c>
       <c r="H57">
@@ -42510,10 +42513,10 @@
       <c r="E58" t="s">
         <v>239</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="7">
         <v>68</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="7">
         <v>368</v>
       </c>
       <c r="H58">
@@ -42536,10 +42539,10 @@
       <c r="E59" t="s">
         <v>239</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="7">
         <v>159</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>368</v>
       </c>
       <c r="H59">
@@ -42562,10 +42565,10 @@
       <c r="E60" t="s">
         <v>239</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="7">
         <v>96</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="7">
         <v>651</v>
       </c>
       <c r="H60">
@@ -42588,10 +42591,10 @@
       <c r="E61" t="s">
         <v>239</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="7">
         <v>61</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="7">
         <v>651</v>
       </c>
       <c r="H61">
@@ -42614,10 +42617,10 @@
       <c r="E62" t="s">
         <v>239</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="7">
         <v>44</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="7">
         <v>651</v>
       </c>
       <c r="H62">
@@ -42640,10 +42643,10 @@
       <c r="E63" t="s">
         <v>239</v>
       </c>
-      <c r="F63" t="s">
-        <v>240</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="7">
         <v>651</v>
       </c>
       <c r="H63">
@@ -42666,10 +42669,10 @@
       <c r="E64" t="s">
         <v>239</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="7">
         <v>63</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="7">
         <v>230</v>
       </c>
       <c r="H64">
@@ -42692,10 +42695,10 @@
       <c r="E65" t="s">
         <v>239</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="7">
         <v>80</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="7">
         <v>230</v>
       </c>
       <c r="H65">
@@ -42718,10 +42721,10 @@
       <c r="E66" t="s">
         <v>239</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="7">
         <v>25</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="7">
         <v>722</v>
       </c>
       <c r="H66">
@@ -42744,10 +42747,10 @@
       <c r="E67" t="s">
         <v>239</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="7">
         <v>367</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="7">
         <v>722</v>
       </c>
       <c r="H67">
@@ -42770,10 +42773,10 @@
       <c r="E68" t="s">
         <v>239</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="7">
         <v>401</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="7">
         <v>1080</v>
       </c>
       <c r="H68">
@@ -42796,10 +42799,10 @@
       <c r="E69" t="s">
         <v>239</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="7">
         <v>292</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="7">
         <v>1080</v>
       </c>
       <c r="H69">
@@ -42822,10 +42825,10 @@
       <c r="E70" t="s">
         <v>239</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="7">
         <v>439</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="7">
         <v>402</v>
       </c>
       <c r="H70">
@@ -42848,10 +42851,10 @@
       <c r="E71" t="s">
         <v>239</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="7">
         <v>487</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="7">
         <v>311</v>
       </c>
       <c r="H71">
@@ -42874,10 +42877,10 @@
       <c r="E72" t="s">
         <v>239</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="7">
         <v>452</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="7">
         <v>334</v>
       </c>
       <c r="H72">
@@ -42900,10 +42903,10 @@
       <c r="E73" t="s">
         <v>239</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="7">
         <v>419</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="7">
         <v>334</v>
       </c>
       <c r="H73">
@@ -42926,10 +42929,10 @@
       <c r="E74" t="s">
         <v>239</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="7">
         <v>645</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="7">
         <v>334</v>
       </c>
       <c r="H74">
@@ -42952,10 +42955,10 @@
       <c r="E75" t="s">
         <v>239</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="7">
         <v>630</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="7">
         <v>334</v>
       </c>
       <c r="H75">
@@ -42978,10 +42981,10 @@
       <c r="E76" t="s">
         <v>239</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="7">
         <v>382</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="7">
         <v>928</v>
       </c>
       <c r="H76">
@@ -43004,10 +43007,10 @@
       <c r="E77" t="s">
         <v>239</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="7">
         <v>253</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="7">
         <v>928</v>
       </c>
       <c r="H77">
@@ -43030,10 +43033,10 @@
       <c r="E78" t="s">
         <v>239</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="7">
         <v>175</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="7">
         <v>928</v>
       </c>
       <c r="H78">
@@ -43056,10 +43059,10 @@
       <c r="E79" t="s">
         <v>239</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="7">
         <v>266</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="7">
         <v>201</v>
       </c>
       <c r="H79">
@@ -43082,10 +43085,10 @@
       <c r="E80" t="s">
         <v>239</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="7">
         <v>102</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="7">
         <v>432</v>
       </c>
       <c r="H80">
@@ -43108,10 +43111,10 @@
       <c r="E81" t="s">
         <v>239</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="7">
         <v>81</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="7">
         <v>432</v>
       </c>
       <c r="H81">
@@ -43134,10 +43137,10 @@
       <c r="E82" t="s">
         <v>239</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="7">
         <v>86</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="7">
         <v>432</v>
       </c>
       <c r="H82">
@@ -43160,10 +43163,10 @@
       <c r="E83" t="s">
         <v>239</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="7">
         <v>110</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="7">
         <v>432</v>
       </c>
       <c r="H83">
@@ -43189,10 +43192,10 @@
       <c r="E84" t="s">
         <v>239</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="7">
         <v>120</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="7">
         <v>432</v>
       </c>
       <c r="H84">
@@ -43218,10 +43221,10 @@
       <c r="E85" t="s">
         <v>239</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="7">
         <v>171</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="7">
         <v>432</v>
       </c>
       <c r="H85">
@@ -43244,10 +43247,10 @@
       <c r="E86" t="s">
         <v>239</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="7">
         <v>169</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="7">
         <v>432</v>
       </c>
       <c r="H86">
@@ -43270,10 +43273,10 @@
       <c r="E87" t="s">
         <v>239</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="7">
         <v>249</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="7">
         <v>432</v>
       </c>
       <c r="H87">
@@ -43296,10 +43299,10 @@
       <c r="E88" t="s">
         <v>239</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="7">
         <v>430</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="7">
         <v>432</v>
       </c>
       <c r="H88">
@@ -43325,10 +43328,10 @@
       <c r="E89" t="s">
         <v>239</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="7">
         <v>412</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="7">
         <v>432</v>
       </c>
       <c r="H89">
@@ -43351,10 +43354,10 @@
       <c r="E90" t="s">
         <v>239</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="7">
         <v>620</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="7">
         <v>432</v>
       </c>
       <c r="H90">
@@ -43377,10 +43380,10 @@
       <c r="E91" t="s">
         <v>239</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="7">
         <v>433</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="7">
         <v>432</v>
       </c>
       <c r="H91">
@@ -43403,10 +43406,10 @@
       <c r="E92" t="s">
         <v>239</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="7">
         <v>363</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="7">
         <v>432</v>
       </c>
       <c r="H92">
@@ -43429,10 +43432,10 @@
       <c r="E93" t="s">
         <v>239</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="7">
         <v>338</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="7">
         <v>432</v>
       </c>
       <c r="H93">
@@ -43455,10 +43458,10 @@
       <c r="E94" t="s">
         <v>239</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="7">
         <v>184</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="7">
         <v>1820</v>
       </c>
       <c r="H94">
@@ -43484,10 +43487,10 @@
       <c r="E95" t="s">
         <v>239</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="7">
         <v>184</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="7">
         <v>1820</v>
       </c>
       <c r="H95">
@@ -43510,10 +43513,10 @@
       <c r="E96" t="s">
         <v>239</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="7">
         <v>165</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="7">
         <v>1820</v>
       </c>
       <c r="H96">
@@ -43539,10 +43542,10 @@
       <c r="E97" t="s">
         <v>239</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="7">
         <v>255</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="7">
         <v>1820</v>
       </c>
       <c r="H97">
@@ -43565,10 +43568,10 @@
       <c r="E98" t="s">
         <v>239</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="7">
         <v>446</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="7">
         <v>1820</v>
       </c>
       <c r="H98">
@@ -43591,10 +43594,10 @@
       <c r="E99" t="s">
         <v>239</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="7">
         <v>638</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="7">
         <v>1820</v>
       </c>
       <c r="H99">
@@ -43617,10 +43620,10 @@
       <c r="E100" t="s">
         <v>239</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="7">
         <v>402</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="7">
         <v>1820</v>
       </c>
       <c r="H100">
@@ -43643,10 +43646,10 @@
       <c r="E101" t="s">
         <v>239</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="7">
         <v>237</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="7">
         <v>1820</v>
       </c>
       <c r="H101">
@@ -43669,10 +43672,10 @@
       <c r="E102" t="s">
         <v>239</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="7">
         <v>91</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="7">
         <v>312</v>
       </c>
       <c r="H102">
@@ -43695,10 +43698,10 @@
       <c r="E103" t="s">
         <v>239</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="7">
         <v>66</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="7">
         <v>312</v>
       </c>
       <c r="H103">
@@ -43721,10 +43724,10 @@
       <c r="E104" t="s">
         <v>239</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="7">
         <v>340</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="7">
         <v>268</v>
       </c>
       <c r="H104">
@@ -43750,10 +43753,10 @@
       <c r="E105" t="s">
         <v>239</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="7">
         <v>19</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="7">
         <v>23</v>
       </c>
       <c r="H105">
@@ -43776,10 +43779,10 @@
       <c r="E106" t="s">
         <v>239</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="7">
         <v>29</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="7">
         <v>28</v>
       </c>
       <c r="H106">
@@ -43802,10 +43805,10 @@
       <c r="E107" t="s">
         <v>239</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="7">
         <v>24</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="7">
         <v>27</v>
       </c>
       <c r="H107">
@@ -43828,10 +43831,10 @@
       <c r="E108" t="s">
         <v>239</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="7">
         <v>25</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="7">
         <v>27</v>
       </c>
       <c r="H108">
@@ -43854,10 +43857,10 @@
       <c r="E109" t="s">
         <v>239</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="7">
         <v>44</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="7">
         <v>27</v>
       </c>
       <c r="H109">
@@ -43880,10 +43883,10 @@
       <c r="E110" t="s">
         <v>239</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="7">
         <v>81</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="7">
         <v>27</v>
       </c>
       <c r="H110">
@@ -43906,10 +43909,10 @@
       <c r="E111" t="s">
         <v>239</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="7">
         <v>13</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="7">
         <v>2.4</v>
       </c>
       <c r="H111">
@@ -43932,10 +43935,10 @@
       <c r="E112" t="s">
         <v>239</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="7">
         <v>13</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="7">
         <v>1.6</v>
       </c>
       <c r="H112">
@@ -43958,10 +43961,10 @@
       <c r="E113" t="s">
         <v>239</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="7">
         <v>39</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="7">
         <v>72</v>
       </c>
       <c r="H113">
@@ -43984,10 +43987,10 @@
       <c r="E114" t="s">
         <v>239</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="7">
         <v>79</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="7">
         <v>72</v>
       </c>
       <c r="H114">
@@ -44010,10 +44013,10 @@
       <c r="E115" t="s">
         <v>239</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="7">
         <v>87</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="7">
         <v>72</v>
       </c>
       <c r="H115">
@@ -44036,10 +44039,10 @@
       <c r="E116" t="s">
         <v>239</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="7">
         <v>101</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="7">
         <v>72</v>
       </c>
       <c r="H116">
@@ -44062,10 +44065,10 @@
       <c r="E117" t="s">
         <v>239</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="7">
         <v>118</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="7">
         <v>72</v>
       </c>
       <c r="H117">
@@ -44088,10 +44091,10 @@
       <c r="E118" t="s">
         <v>239</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="7">
         <v>88</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="7">
         <v>72</v>
       </c>
       <c r="H118">
@@ -44114,10 +44117,10 @@
       <c r="E119" t="s">
         <v>239</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="7">
         <v>17</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="7">
         <v>2.5</v>
       </c>
       <c r="H119">
@@ -44140,10 +44143,10 @@
       <c r="E120" t="s">
         <v>239</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="7">
         <v>22</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="7">
         <v>26</v>
       </c>
       <c r="H120">
@@ -44166,10 +44169,10 @@
       <c r="E121" t="s">
         <v>239</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="7">
         <v>118</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="7">
         <v>26</v>
       </c>
       <c r="H121">
@@ -44192,10 +44195,10 @@
       <c r="E122" t="s">
         <v>239</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="7">
         <v>194</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="7">
         <v>26</v>
       </c>
       <c r="H122">
@@ -44218,10 +44221,10 @@
       <c r="E123" t="s">
         <v>239</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="7">
         <v>252</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="7">
         <v>26</v>
       </c>
       <c r="H123">
@@ -44244,10 +44247,10 @@
       <c r="E124" t="s">
         <v>239</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="7">
         <v>153</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="7">
         <v>55</v>
       </c>
       <c r="H124">
@@ -44270,10 +44273,10 @@
       <c r="E125" t="s">
         <v>239</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="7">
         <v>52</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="7">
         <v>55</v>
       </c>
       <c r="H125">
@@ -44296,10 +44299,10 @@
       <c r="E126" t="s">
         <v>239</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="7">
         <v>54</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="7">
         <v>7.6</v>
       </c>
       <c r="H126">
@@ -44322,10 +44325,10 @@
       <c r="E127" t="s">
         <v>239</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="7">
         <v>36</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="7">
         <v>7.6</v>
       </c>
       <c r="H127">
@@ -44348,10 +44351,10 @@
       <c r="E128" t="s">
         <v>239</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="7">
         <v>30</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="7">
         <v>22</v>
       </c>
       <c r="H128">
@@ -44374,10 +44377,10 @@
       <c r="E129" t="s">
         <v>239</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="7">
         <v>37</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="7">
         <v>22</v>
       </c>
       <c r="H129">
@@ -44400,10 +44403,10 @@
       <c r="E130" t="s">
         <v>239</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="7">
         <v>159</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="7">
         <v>44</v>
       </c>
       <c r="H130">
@@ -44429,10 +44432,10 @@
       <c r="E131" t="s">
         <v>239</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="7">
         <v>25</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="7">
         <v>4.2</v>
       </c>
       <c r="H131">
@@ -44458,10 +44461,10 @@
       <c r="E132" t="s">
         <v>239</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="7">
         <v>8</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="7">
         <v>62</v>
       </c>
       <c r="H132">
@@ -44499,10 +44502,10 @@
       <c r="E133" t="s">
         <v>239</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="7">
         <v>32</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="7">
         <v>62</v>
       </c>
       <c r="H133">
@@ -44540,10 +44543,10 @@
       <c r="E134" t="s">
         <v>239</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="7">
         <v>600</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="7">
         <v>576</v>
       </c>
       <c r="H134">
@@ -44572,10 +44575,10 @@
       <c r="E135" t="s">
         <v>239</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="7">
         <v>495</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="7">
         <v>576</v>
       </c>
       <c r="H135">
@@ -44604,10 +44607,10 @@
       <c r="E136" t="s">
         <v>239</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="7">
         <v>633</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="7">
         <v>576</v>
       </c>
       <c r="H136">
@@ -44636,10 +44639,10 @@
       <c r="E137" t="s">
         <v>239</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="7">
         <v>927</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="7">
         <v>576</v>
       </c>
       <c r="H137">
@@ -44668,10 +44671,10 @@
       <c r="E138" t="s">
         <v>239</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="7">
         <v>4210</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="7">
         <v>576</v>
       </c>
       <c r="H138">
@@ -44700,10 +44703,10 @@
       <c r="E139" t="s">
         <v>239</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="7">
         <v>48</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="7">
         <v>197</v>
       </c>
       <c r="H139">
@@ -44732,10 +44735,10 @@
       <c r="E140" t="s">
         <v>239</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="7">
         <v>87</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="7">
         <v>197</v>
       </c>
       <c r="H140">
@@ -44764,10 +44767,10 @@
       <c r="E141" t="s">
         <v>239</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="7">
         <v>157</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="7">
         <v>197</v>
       </c>
       <c r="H141">
@@ -44796,10 +44799,10 @@
       <c r="E142" t="s">
         <v>239</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="7">
         <v>138</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="7">
         <v>197</v>
       </c>
       <c r="H142">
@@ -44828,10 +44831,10 @@
       <c r="E143" t="s">
         <v>239</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="7">
         <v>116</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="7">
         <v>197</v>
       </c>
       <c r="H143">
@@ -44857,10 +44860,10 @@
       <c r="E144" t="s">
         <v>239</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="7">
         <v>173</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="7">
         <v>197</v>
       </c>
       <c r="H144">
@@ -44889,10 +44892,10 @@
       <c r="E145" t="s">
         <v>239</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="7">
         <v>173</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="7">
         <v>1000</v>
       </c>
       <c r="H145">
@@ -44921,10 +44924,10 @@
       <c r="E146" t="s">
         <v>239</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="7">
         <v>148</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="7">
         <v>1000</v>
       </c>
       <c r="H146">
@@ -44953,10 +44956,10 @@
       <c r="E147" t="s">
         <v>239</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="7">
         <v>28</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="7">
         <v>275</v>
       </c>
       <c r="H147">
@@ -44985,10 +44988,10 @@
       <c r="E148" t="s">
         <v>239</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="7">
         <v>541</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="7">
         <v>904</v>
       </c>
       <c r="H148">
@@ -45017,10 +45020,10 @@
       <c r="E149" t="s">
         <v>239</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="7">
         <v>521</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="7">
         <v>1230</v>
       </c>
       <c r="H149">
@@ -45049,10 +45052,10 @@
       <c r="E150" t="s">
         <v>239</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="7">
         <v>493</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="7">
         <v>1230</v>
       </c>
       <c r="H150">
@@ -45081,10 +45084,10 @@
       <c r="E151" t="s">
         <v>239</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="7">
         <v>426</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="7">
         <v>1230</v>
       </c>
       <c r="H151">
@@ -45113,10 +45116,10 @@
       <c r="E152" t="s">
         <v>239</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="7">
         <v>738</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="7">
         <v>1230</v>
       </c>
       <c r="H152">
@@ -45145,10 +45148,10 @@
       <c r="E153" t="s">
         <v>239</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="7">
         <v>382</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="7">
         <v>1230</v>
       </c>
       <c r="H153">
@@ -45177,10 +45180,10 @@
       <c r="E154" t="s">
         <v>239</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="7">
         <v>267</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="7">
         <v>1230</v>
       </c>
       <c r="H154">
@@ -45209,10 +45212,10 @@
       <c r="E155" t="s">
         <v>239</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="7">
         <v>76</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="7">
         <v>842</v>
       </c>
       <c r="H155">
@@ -45241,10 +45244,10 @@
       <c r="E156" t="s">
         <v>239</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="7">
         <v>87</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="7">
         <v>842</v>
       </c>
       <c r="H156">
@@ -45273,10 +45276,10 @@
       <c r="E157" t="s">
         <v>239</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="7">
         <v>82</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="7">
         <v>312</v>
       </c>
       <c r="H157">
@@ -45305,10 +45308,10 @@
       <c r="E158" t="s">
         <v>239</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="7">
         <v>282</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="7">
         <v>1620</v>
       </c>
       <c r="H158">
@@ -45337,10 +45340,10 @@
       <c r="E159" t="s">
         <v>239</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="7">
         <v>123</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="7">
         <v>1620</v>
       </c>
       <c r="H159">
@@ -45369,10 +45372,10 @@
       <c r="E160" t="s">
         <v>239</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="7">
         <v>85</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="7">
         <v>1620</v>
       </c>
       <c r="H160">
@@ -45401,10 +45404,10 @@
       <c r="E161" t="s">
         <v>239</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="7">
         <v>215</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="7">
         <v>1620</v>
       </c>
       <c r="H161">
@@ -45433,10 +45436,10 @@
       <c r="E162" t="s">
         <v>239</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="7">
         <v>13</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="7">
         <v>102</v>
       </c>
       <c r="H162">
@@ -45465,10 +45468,10 @@
       <c r="E163" t="s">
         <v>239</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="7">
         <v>7</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="7">
         <v>102</v>
       </c>
       <c r="H163">
@@ -45497,10 +45500,10 @@
       <c r="E164" t="s">
         <v>239</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="7">
         <v>7</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="7">
         <v>102</v>
       </c>
       <c r="H164">
@@ -45529,10 +45532,10 @@
       <c r="E165" t="s">
         <v>239</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="7">
         <v>6</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="7">
         <v>102</v>
       </c>
       <c r="H165">
@@ -45561,10 +45564,10 @@
       <c r="E166" t="s">
         <v>239</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="7">
         <v>726</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="7">
         <v>50</v>
       </c>
       <c r="H166">
@@ -45590,10 +45593,10 @@
       <c r="E167" t="s">
         <v>239</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="7">
         <v>455</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="7">
         <v>50</v>
       </c>
       <c r="H167">
@@ -45619,10 +45622,10 @@
       <c r="E168" t="s">
         <v>239</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="7">
         <v>12</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="7">
         <v>3.6</v>
       </c>
       <c r="H168">
@@ -45648,10 +45651,10 @@
       <c r="E169" t="s">
         <v>239</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="7">
         <v>37</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="7">
         <v>3.6</v>
       </c>
       <c r="H169">
@@ -45677,10 +45680,10 @@
       <c r="E170" t="s">
         <v>132</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="7">
         <v>42</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="7">
         <v>20</v>
       </c>
       <c r="H170">
@@ -45715,10 +45718,10 @@
       <c r="E171" t="s">
         <v>132</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="7">
         <v>16</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="7">
         <v>45</v>
       </c>
       <c r="H171">
@@ -45753,10 +45756,10 @@
       <c r="E172" t="s">
         <v>239</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="7">
         <v>6</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="7">
         <v>0.37</v>
       </c>
       <c r="H172">
@@ -45791,10 +45794,10 @@
       <c r="E173" t="s">
         <v>239</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="7">
         <v>352</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="7">
         <v>217</v>
       </c>
       <c r="H173">
@@ -45829,10 +45832,10 @@
       <c r="E174" t="s">
         <v>239</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="7">
         <v>163</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="7">
         <v>217</v>
       </c>
       <c r="H174">
@@ -45867,10 +45870,10 @@
       <c r="E175" t="s">
         <v>239</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="7">
         <v>373</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="7">
         <v>1500</v>
       </c>
       <c r="H175">
@@ -45905,10 +45908,10 @@
       <c r="E176" t="s">
         <v>239</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="7">
         <v>823</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="7">
         <v>1500</v>
       </c>
       <c r="H176">
@@ -45943,10 +45946,10 @@
       <c r="E177" t="s">
         <v>239</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="7">
         <v>689</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="7">
         <v>1500</v>
       </c>
       <c r="H177">
@@ -45981,10 +45984,10 @@
       <c r="E178" t="s">
         <v>239</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="7">
         <v>335</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="7">
         <v>1500</v>
       </c>
       <c r="H178">
@@ -46022,10 +46025,10 @@
       <c r="E179" t="s">
         <v>239</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="7">
         <v>135</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="7">
         <v>1500</v>
       </c>
       <c r="H179">
@@ -46060,10 +46063,10 @@
       <c r="E180" t="s">
         <v>239</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="7">
         <v>34</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="7">
         <v>183</v>
       </c>
       <c r="H180">
@@ -46098,10 +46101,10 @@
       <c r="E181" t="s">
         <v>239</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="7">
         <v>28</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="7">
         <v>183</v>
       </c>
       <c r="H181">
@@ -46136,10 +46139,10 @@
       <c r="E182" t="s">
         <v>239</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="7">
         <v>28</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="7">
         <v>183</v>
       </c>
       <c r="H182">
@@ -46174,9 +46177,10 @@
       <c r="E183" t="s">
         <v>239</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="7">
         <v>99</v>
       </c>
+      <c r="G183" s="6"/>
       <c r="O183">
         <v>97</v>
       </c>
@@ -46209,9 +46213,10 @@
       <c r="E184" t="s">
         <v>239</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="7">
         <v>186</v>
       </c>
+      <c r="G184" s="6"/>
       <c r="O184">
         <v>99</v>
       </c>
@@ -46244,9 +46249,10 @@
       <c r="E185" t="s">
         <v>239</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="7">
         <v>1010</v>
       </c>
+      <c r="G185" s="6"/>
       <c r="O185">
         <v>97</v>
       </c>
@@ -46279,9 +46285,10 @@
       <c r="E186" t="s">
         <v>239</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="7">
         <v>256</v>
       </c>
+      <c r="G186" s="6"/>
       <c r="O186">
         <v>89</v>
       </c>
@@ -46314,9 +46321,10 @@
       <c r="E187" t="s">
         <v>239</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="7">
         <v>237</v>
       </c>
+      <c r="G187" s="6"/>
       <c r="O187">
         <v>89</v>
       </c>
@@ -46349,9 +46357,10 @@
       <c r="E188" t="s">
         <v>239</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="7">
         <v>231</v>
       </c>
+      <c r="G188" s="6"/>
       <c r="O188">
         <v>89</v>
       </c>
@@ -46384,9 +46393,10 @@
       <c r="E189" t="s">
         <v>239</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="7">
         <v>195</v>
       </c>
+      <c r="G189" s="6"/>
       <c r="O189">
         <v>92</v>
       </c>
@@ -46419,9 +46429,10 @@
       <c r="E190" t="s">
         <v>239</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="7">
         <v>115</v>
       </c>
+      <c r="G190" s="6"/>
       <c r="O190">
         <v>91</v>
       </c>
@@ -46454,9 +46465,10 @@
       <c r="E191" t="s">
         <v>239</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="7">
         <v>100</v>
       </c>
+      <c r="G191" s="6"/>
       <c r="O191">
         <v>96</v>
       </c>
@@ -46489,9 +46501,10 @@
       <c r="E192" t="s">
         <v>239</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="7">
         <v>100</v>
       </c>
+      <c r="G192" s="6"/>
       <c r="O192">
         <v>97</v>
       </c>
@@ -46524,9 +46537,10 @@
       <c r="E193" t="s">
         <v>239</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="7">
         <v>82</v>
       </c>
+      <c r="G193" s="6"/>
       <c r="O193">
         <v>97</v>
       </c>
@@ -46559,9 +46573,10 @@
       <c r="E194" t="s">
         <v>239</v>
       </c>
-      <c r="F194">
-        <v>9</v>
-      </c>
+      <c r="F194" s="7">
+        <v>9</v>
+      </c>
+      <c r="G194" s="6"/>
       <c r="Y194">
         <v>70</v>
       </c>
@@ -46588,9 +46603,10 @@
       <c r="E195" t="s">
         <v>239</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="7">
         <v>16</v>
       </c>
+      <c r="G195" s="6"/>
       <c r="Y195">
         <v>70</v>
       </c>

--- a/usgs-sediment/harpeth_river_USGS.xlsx
+++ b/usgs-sediment/harpeth_river_USGS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moyoa\Documents\GitHub\MATLAB_Functions\usgs-sediment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EBC1E6-0725-4DD1-ACB6-D47D69BACFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EB0057-2F93-477C-AC12-5A52608A8F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-4392" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{B5D21F95-566D-44EE-AF36-F6105D2006C2}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="21870" windowHeight="13170" activeTab="2" xr2:uid="{B5D21F95-566D-44EE-AF36-F6105D2006C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Variable_Info" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="239">
   <si>
     <t>agency_cd</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Harpeth</t>
-  </si>
-  <si>
-    <t># SITE INFORMATION</t>
   </si>
   <si>
     <t>SITE_NO</t>
@@ -1143,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1218,7 +1215,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1228,242 +1225,242 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1498,262 +1495,262 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1763,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2CE56C-A95B-4B1D-B71D-54B451BD2865}">
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,180 +1773,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
+      <c r="A2">
+        <v>3433500</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>36.054563335079003</v>
+      </c>
+      <c r="D2">
+        <v>-86.928510220490693</v>
+      </c>
+      <c r="E2">
+        <v>409</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>8.3000000000000007</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>513</v>
+      </c>
+      <c r="T2">
+        <v>51302</v>
+      </c>
+      <c r="U2">
+        <v>5130204</v>
+      </c>
+      <c r="V2">
+        <v>1.7181999999999999</v>
+      </c>
+      <c r="W2">
+        <v>27.2332</v>
+      </c>
+      <c r="X2">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="Y2">
+        <v>285.81205</v>
+      </c>
+      <c r="Z2">
+        <v>138.70679999999999</v>
+      </c>
+      <c r="AA2">
+        <v>16.484856233999999</v>
+      </c>
+      <c r="AB2">
+        <v>39.095325496000001</v>
+      </c>
+      <c r="AC2">
+        <v>39.899820009999999</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>4026</v>
+      </c>
+      <c r="AF2">
+        <v>34.812399999999997</v>
+      </c>
+      <c r="AG2">
+        <v>14.010300000000001</v>
+      </c>
+      <c r="AH2">
+        <v>51.177199999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>2.6</v>
+      </c>
+      <c r="AK2">
+        <v>9.6</v>
+      </c>
+      <c r="AL2">
+        <v>17</v>
+      </c>
+      <c r="AM2">
+        <v>35</v>
+      </c>
+      <c r="AN2">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AO2">
         <v>61</v>
       </c>
-      <c r="AA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>86</v>
+      <c r="AP2">
+        <v>110</v>
+      </c>
+      <c r="AQ2">
+        <v>194</v>
+      </c>
+      <c r="AR2">
+        <v>312</v>
+      </c>
+      <c r="AS2">
+        <v>490</v>
+      </c>
+      <c r="AT2">
+        <v>614</v>
+      </c>
+      <c r="AU2">
+        <v>779</v>
+      </c>
+      <c r="AV2">
+        <v>1380</v>
+      </c>
+      <c r="AW2">
+        <v>2290</v>
+      </c>
+      <c r="AX2">
+        <v>6812.8</v>
+      </c>
+      <c r="AY2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3433500</v>
+        <v>3434500</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C3">
-        <v>36.054563335079003</v>
+        <v>36.122003207221198</v>
       </c>
       <c r="D3">
-        <v>-86.928510220490693</v>
+        <v>-87.098893792331793</v>
       </c>
       <c r="E3">
-        <v>409</v>
+        <v>683</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -2000,111 +2147,111 @@
         <v>5130204</v>
       </c>
       <c r="V3">
-        <v>1.7181999999999999</v>
+        <v>1.7961</v>
       </c>
       <c r="W3">
-        <v>27.2332</v>
+        <v>29.427399999999999</v>
       </c>
       <c r="X3">
         <v>0.34350000000000003</v>
       </c>
       <c r="Y3">
-        <v>285.81205</v>
+        <v>284.39918999999998</v>
       </c>
       <c r="Z3">
-        <v>138.70679999999999</v>
+        <v>137.91849999999999</v>
       </c>
       <c r="AA3">
-        <v>16.484856233999999</v>
+        <v>12.606053008</v>
       </c>
       <c r="AB3">
-        <v>39.095325496000001</v>
+        <v>51.437137765999999</v>
       </c>
       <c r="AC3">
-        <v>39.899820009999999</v>
+        <v>31.111252746000002</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>4026</v>
+        <v>5881</v>
       </c>
       <c r="AF3">
-        <v>34.812399999999997</v>
+        <v>34.296700000000001</v>
       </c>
       <c r="AG3">
-        <v>14.010300000000001</v>
+        <v>14.311199999999999</v>
       </c>
       <c r="AH3">
-        <v>51.177199999999999</v>
+        <v>51.392200000000003</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.6</v>
+        <v>31</v>
       </c>
       <c r="AK3">
-        <v>9.6</v>
+        <v>53</v>
       </c>
       <c r="AL3">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AM3">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="AN3">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AO3">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="AP3">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="AQ3">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="AR3">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="AS3">
-        <v>490</v>
+        <v>834.9</v>
       </c>
       <c r="AT3">
-        <v>614</v>
+        <v>1030</v>
       </c>
       <c r="AU3">
-        <v>779</v>
+        <v>1290</v>
       </c>
       <c r="AV3">
-        <v>1380</v>
+        <v>2230</v>
       </c>
       <c r="AW3">
-        <v>2290</v>
+        <v>3700</v>
       </c>
       <c r="AX3">
-        <v>6812.8</v>
+        <v>10200</v>
       </c>
       <c r="AY3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3434500</v>
+        <v>3432100</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="C4">
-        <v>36.122003207221198</v>
+        <v>35.832564945144298</v>
       </c>
       <c r="D4">
-        <v>-87.098893792331793</v>
+        <v>-86.698886138058896</v>
       </c>
       <c r="E4">
-        <v>683</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -2155,203 +2302,48 @@
         <v>5130204</v>
       </c>
       <c r="V4">
-        <v>1.7961</v>
+        <v>1.3035000000000001</v>
       </c>
       <c r="W4">
-        <v>29.427399999999999</v>
+        <v>25.512</v>
       </c>
       <c r="X4">
-        <v>0.34350000000000003</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="Y4">
-        <v>284.39918999999998</v>
+        <v>287.76625999999999</v>
       </c>
       <c r="Z4">
-        <v>137.91849999999999</v>
+        <v>140.10319999999999</v>
       </c>
       <c r="AA4">
-        <v>12.606053008</v>
+        <v>4.7270696330000002</v>
       </c>
       <c r="AB4">
-        <v>51.437137765999999</v>
+        <v>33.661138154</v>
       </c>
       <c r="AC4">
-        <v>31.111252746000002</v>
+        <v>55.098040288999997</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>34.296700000000001</v>
+        <v>37.473999999999997</v>
       </c>
       <c r="AG4">
-        <v>14.311199999999999</v>
+        <v>12.936500000000001</v>
       </c>
       <c r="AH4">
-        <v>51.392200000000003</v>
+        <v>49.589500000000001</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AJ4">
-        <v>31</v>
-      </c>
-      <c r="AK4">
-        <v>53</v>
-      </c>
-      <c r="AL4">
-        <v>71</v>
-      </c>
-      <c r="AM4">
-        <v>108</v>
-      </c>
-      <c r="AN4">
-        <v>130</v>
-      </c>
-      <c r="AO4">
-        <v>155</v>
-      </c>
-      <c r="AP4">
-        <v>231</v>
-      </c>
-      <c r="AQ4">
-        <v>355</v>
-      </c>
-      <c r="AR4">
-        <v>550</v>
-      </c>
-      <c r="AS4">
-        <v>834.9</v>
-      </c>
-      <c r="AT4">
-        <v>1030</v>
-      </c>
-      <c r="AU4">
-        <v>1290</v>
-      </c>
-      <c r="AV4">
-        <v>2230</v>
-      </c>
-      <c r="AW4">
-        <v>3700</v>
-      </c>
-      <c r="AX4">
-        <v>10200</v>
-      </c>
       <c r="AY4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3432100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5">
-        <v>35.832564945144298</v>
-      </c>
-      <c r="D5">
-        <v>-86.698886138058896</v>
-      </c>
-      <c r="E5">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>513</v>
-      </c>
-      <c r="T5">
-        <v>51302</v>
-      </c>
-      <c r="U5">
-        <v>5130204</v>
-      </c>
-      <c r="V5">
-        <v>1.3035000000000001</v>
-      </c>
-      <c r="W5">
-        <v>25.512</v>
-      </c>
-      <c r="X5">
-        <v>0.34870000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>287.76625999999999</v>
-      </c>
-      <c r="Z5">
-        <v>140.10319999999999</v>
-      </c>
-      <c r="AA5">
-        <v>4.7270696330000002</v>
-      </c>
-      <c r="AB5">
-        <v>33.661138154</v>
-      </c>
-      <c r="AC5">
-        <v>55.098040288999997</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>37.473999999999997</v>
-      </c>
-      <c r="AG5">
-        <v>12.936500000000001</v>
-      </c>
-      <c r="AH5">
-        <v>49.589500000000001</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
         <v>194</v>
       </c>
     </row>
@@ -3482,139 +3474,139 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>105</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>126</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>127</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>128</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>129</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
@@ -3628,10 +3620,10 @@
         <v>38545.629166666666</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2">
         <v>220</v>
@@ -3651,10 +3643,10 @@
         <v>38545.629861111112</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3">
         <v>293</v>
@@ -3674,10 +3666,10 @@
         <v>38545.630555555559</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4">
         <v>187</v>
@@ -3697,10 +3689,10 @@
         <v>38545.636111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5">
         <v>57</v>
@@ -3720,10 +3712,10 @@
         <v>38545.636805555558</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6">
         <v>109</v>
@@ -3743,10 +3735,10 @@
         <v>38545.637499999997</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7">
         <v>54</v>
@@ -3766,10 +3758,10 @@
         <v>38594.59375</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8">
         <v>803</v>
@@ -3804,10 +3796,10 @@
         <v>38594.594444444447</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9">
         <v>757</v>
@@ -3842,10 +3834,10 @@
         <v>38594.595138888886</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10">
         <v>618</v>
@@ -3880,10 +3872,10 @@
         <v>38594.614583333336</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11">
         <v>760</v>
@@ -3918,10 +3910,10 @@
         <v>38594.615277777775</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F12">
         <v>782</v>
@@ -3956,10 +3948,10 @@
         <v>38594.615972222222</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13">
         <v>614</v>
@@ -3994,10 +3986,10 @@
         <v>38594.635416666664</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14">
         <v>704</v>
@@ -4032,10 +4024,10 @@
         <v>38594.636111111111</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15">
         <v>705</v>
@@ -4070,10 +4062,10 @@
         <v>38594.636805555558</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16">
         <v>558</v>
@@ -4134,139 +4126,139 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>105</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>126</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>127</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>128</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>129</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
@@ -4274,16 +4266,16 @@
         <v>3434500</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3">
         <v>37782.447916666664</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>32</v>
@@ -4309,16 +4301,16 @@
         <v>3434500</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3">
         <v>37832.395833333336</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -4344,16 +4336,16 @@
         <v>3434500</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3">
         <v>37959.34375</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -4382,16 +4374,16 @@
         <v>3434500</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3">
         <v>38098.5</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -4423,16 +4415,16 @@
         <v>3434500</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3">
         <v>38211.444444444445</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -4461,16 +4453,16 @@
         <v>3434500</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3">
         <v>38378.395833333336</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4499,16 +4491,16 @@
         <v>3434500</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="3">
         <v>38462.375</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -40784,7 +40776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71537EC4-1369-4D3D-9549-8752C3492659}">
   <dimension ref="A1:AS195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
@@ -40800,139 +40792,139 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>105</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>126</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>127</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>128</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>129</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
@@ -40940,16 +40932,16 @@
         <v>3432100</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5">
         <v>37112.5</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="7">
         <v>11</v>
@@ -40964,16 +40956,16 @@
         <v>3432100</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5">
         <v>39142.4375</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="7">
         <v>305</v>
@@ -40999,16 +40991,16 @@
         <v>3432100</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5">
         <v>39142.552083333336</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7">
         <v>423</v>
@@ -41034,16 +41026,16 @@
         <v>3432100</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="5">
         <v>39142.552777777775</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7">
         <v>428</v>
@@ -41069,16 +41061,16 @@
         <v>3432100</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="5">
         <v>39147.541666666664</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7">
         <v>14</v>
@@ -41095,16 +41087,16 @@
         <v>3432100</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="5">
         <v>39175.5625</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
@@ -41121,16 +41113,16 @@
         <v>3432100</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5">
         <v>39175.563194444447</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7">
         <v>6</v>
@@ -41147,16 +41139,16 @@
         <v>3432100</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="5">
         <v>39175.563888888886</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
@@ -41173,16 +41165,16 @@
         <v>3432100</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="5">
         <v>39175.583333333336</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7">
         <v>5</v>
@@ -41199,16 +41191,16 @@
         <v>3432100</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="5">
         <v>39175.614583333336</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
@@ -41225,16 +41217,16 @@
         <v>3432100</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="5">
         <v>39190.510416666664</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7">
         <v>7</v>
@@ -41251,16 +41243,16 @@
         <v>3432100</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="5">
         <v>39204.510416666664</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7">
         <v>6</v>
@@ -41277,16 +41269,16 @@
         <v>3432100</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="5">
         <v>39207.510416666664</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7">
         <v>13</v>
@@ -41303,16 +41295,16 @@
         <v>3432100</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="5">
         <v>39208.510416666664</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" s="7">
         <v>269</v>
@@ -41329,16 +41321,16 @@
         <v>3432100</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="5">
         <v>39209.510416666664</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7">
         <v>212</v>
@@ -41355,16 +41347,16 @@
         <v>3432100</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="5">
         <v>39222.5</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7">
         <v>19</v>
@@ -41381,16 +41373,16 @@
         <v>3432100</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="5">
         <v>39230.5</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7">
         <v>14</v>
@@ -41407,16 +41399,16 @@
         <v>3432100</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="5">
         <v>39238.5</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7">
         <v>11</v>
@@ -41433,16 +41425,16 @@
         <v>3432100</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="5">
         <v>39252.791666666664</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7">
         <v>54</v>
@@ -41459,16 +41451,16 @@
         <v>3432100</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="5">
         <v>39262.59375</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7">
         <v>54</v>
@@ -41485,16 +41477,16 @@
         <v>3432100</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="5">
         <v>39262.604166666664</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7">
         <v>89</v>
@@ -41511,16 +41503,16 @@
         <v>3432100</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="5">
         <v>39336.781944444447</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7">
         <v>63</v>
@@ -41537,16 +41529,16 @@
         <v>3432100</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="5">
         <v>39400.740972222222</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="7">
         <v>56</v>
@@ -41566,16 +41558,16 @@
         <v>3432100</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="5">
         <v>39414.445833333331</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7">
         <v>6</v>
@@ -41595,16 +41587,16 @@
         <v>3432100</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="5">
         <v>39477.416666666664</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7">
         <v>118</v>
@@ -41624,16 +41616,16 @@
         <v>3432100</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="5">
         <v>39479.476388888892</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F27" s="7">
         <v>140</v>
@@ -41653,16 +41645,16 @@
         <v>3432100</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="5">
         <v>39479.833333333336</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" s="7">
         <v>115</v>
@@ -41682,16 +41674,16 @@
         <v>3432100</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="5">
         <v>39484.625</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7">
         <v>35</v>
@@ -41711,16 +41703,16 @@
         <v>3432100</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" s="5">
         <v>39484.71875</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F30" s="7">
         <v>51</v>
@@ -41740,16 +41732,16 @@
         <v>3432100</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C31" s="5">
         <v>39486.371527777781</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" s="7">
         <v>39</v>
@@ -41769,16 +41761,16 @@
         <v>3432100</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C32" s="5">
         <v>39486.375</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F32" s="7">
         <v>21</v>
@@ -41798,16 +41790,16 @@
         <v>3432100</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" s="5">
         <v>39542.65625</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="7">
         <v>77</v>
@@ -41830,16 +41822,16 @@
         <v>3432100</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="5">
         <v>39542.75</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7">
         <v>204</v>
@@ -41862,16 +41854,16 @@
         <v>3432100</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="5">
         <v>39543.25</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7">
         <v>70</v>
@@ -41894,16 +41886,16 @@
         <v>3432100</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="5">
         <v>39543.75</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7">
         <v>58</v>
@@ -41926,16 +41918,16 @@
         <v>3432100</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="5">
         <v>39545.25</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7">
         <v>34</v>
@@ -41958,16 +41950,16 @@
         <v>3432100</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="5">
         <v>39549.5625</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7">
         <v>92</v>
@@ -41990,16 +41982,16 @@
         <v>3432100</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="5">
         <v>39553.430555555555</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F39" s="7">
         <v>211</v>
@@ -42022,16 +42014,16 @@
         <v>3432100</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" s="5">
         <v>39622.3125</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7">
         <v>274</v>
@@ -42051,16 +42043,16 @@
         <v>3432100</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" s="5">
         <v>39678.458333333336</v>
       </c>
       <c r="D41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="7">
         <v>18</v>
@@ -42080,16 +42072,16 @@
         <v>3432100</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="5">
         <v>39685.972222222219</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F42" s="7">
         <v>88</v>
@@ -42109,16 +42101,16 @@
         <v>3432100</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="5">
         <v>39685.982638888891</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F43" s="7">
         <v>97</v>
@@ -42138,16 +42130,16 @@
         <v>3432100</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" s="5">
         <v>39686.097222222219</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7">
         <v>82</v>
@@ -42164,16 +42156,16 @@
         <v>3432100</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="5">
         <v>39792.0625</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F45" s="7">
         <v>632</v>
@@ -42190,16 +42182,16 @@
         <v>3432100</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5">
         <v>39792.145833333336</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="7">
         <v>1030</v>
@@ -42216,16 +42208,16 @@
         <v>3432100</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="5">
         <v>39792.260416666664</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" s="7">
         <v>394</v>
@@ -42242,16 +42234,16 @@
         <v>3432100</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="5">
         <v>39792.368055555555</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F48" s="7">
         <v>252</v>
@@ -42268,16 +42260,16 @@
         <v>3432100</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="5">
         <v>39792.375</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" s="7">
         <v>293</v>
@@ -42294,16 +42286,16 @@
         <v>3432100</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="5">
         <v>39793.614583333336</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" s="7">
         <v>67</v>
@@ -42320,16 +42312,16 @@
         <v>3432100</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" s="5">
         <v>39794.59375</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F51" s="7">
         <v>77</v>
@@ -42346,16 +42338,16 @@
         <v>3432100</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="5">
         <v>39802</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" s="7">
         <v>135</v>
@@ -42372,16 +42364,16 @@
         <v>3432100</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" s="5">
         <v>39806.614583333336</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F53" s="7">
         <v>85</v>
@@ -42398,16 +42390,16 @@
         <v>3432100</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="5">
         <v>39806.625</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="7">
         <v>431</v>
@@ -42424,16 +42416,16 @@
         <v>3432100</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" s="5">
         <v>39810.21875</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F55" s="7">
         <v>141</v>
@@ -42450,16 +42442,16 @@
         <v>3432100</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="5">
         <v>39810.270833333336</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="7">
         <v>285</v>
@@ -42476,16 +42468,16 @@
         <v>3432100</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="5">
         <v>39810.385416666664</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F57" s="7">
         <v>277</v>
@@ -42502,16 +42494,16 @@
         <v>3432100</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="5">
         <v>39819.645833333336</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F58" s="7">
         <v>68</v>
@@ -42528,16 +42520,16 @@
         <v>3432100</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="5">
         <v>39819.947916666664</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F59" s="7">
         <v>159</v>
@@ -42554,16 +42546,16 @@
         <v>3432100</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" s="5">
         <v>39820.302083333336</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F60" s="7">
         <v>96</v>
@@ -42580,16 +42572,16 @@
         <v>3432100</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="5">
         <v>39820.4375</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" s="7">
         <v>61</v>
@@ -42606,16 +42598,16 @@
         <v>3432100</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="5">
         <v>39820.5625</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62" s="7">
         <v>44</v>
@@ -42632,16 +42624,16 @@
         <v>3432100</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" s="5">
         <v>39820.78125</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F63" s="8">
         <v>0.5</v>
@@ -42658,16 +42650,16 @@
         <v>3432100</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="5">
         <v>39841.21875</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F64" s="7">
         <v>63</v>
@@ -42684,16 +42676,16 @@
         <v>3432100</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="5">
         <v>39841.229166666664</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" s="7">
         <v>80</v>
@@ -42710,16 +42702,16 @@
         <v>3432100</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C66" s="5">
         <v>39886.145833333336</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F66" s="7">
         <v>25</v>
@@ -42736,16 +42728,16 @@
         <v>3432100</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" s="5">
         <v>39886.75</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F67" s="7">
         <v>367</v>
@@ -42762,16 +42754,16 @@
         <v>3432100</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C68" s="5">
         <v>39898.197916666664</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F68" s="7">
         <v>401</v>
@@ -42788,16 +42780,16 @@
         <v>3432100</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C69" s="5">
         <v>39898.229166666664</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F69" s="7">
         <v>292</v>
@@ -42814,16 +42806,16 @@
         <v>3432100</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C70" s="5">
         <v>39899.104166666664</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F70" s="7">
         <v>439</v>
@@ -42840,16 +42832,16 @@
         <v>3432100</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" s="5">
         <v>39900.75</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F71" s="7">
         <v>487</v>
@@ -42866,16 +42858,16 @@
         <v>3432100</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C72" s="5">
         <v>39905.71875</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F72" s="7">
         <v>452</v>
@@ -42892,16 +42884,16 @@
         <v>3432100</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C73" s="5">
         <v>39905.729166666664</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="7">
         <v>419</v>
@@ -42918,16 +42910,16 @@
         <v>3432100</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C74" s="5">
         <v>39905.8125</v>
       </c>
       <c r="D74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F74" s="7">
         <v>645</v>
@@ -42944,16 +42936,16 @@
         <v>3432100</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="5">
         <v>39905.979166666664</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F75" s="7">
         <v>630</v>
@@ -42970,16 +42962,16 @@
         <v>3432100</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76" s="5">
         <v>39906.072916666664</v>
       </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F76" s="7">
         <v>382</v>
@@ -42996,16 +42988,16 @@
         <v>3432100</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="5">
         <v>39906.385416666664</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F77" s="7">
         <v>253</v>
@@ -43022,16 +43014,16 @@
         <v>3432100</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" s="5">
         <v>39906.604166666664</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F78" s="7">
         <v>175</v>
@@ -43048,16 +43040,16 @@
         <v>3432100</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="5">
         <v>39913.875</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F79" s="7">
         <v>266</v>
@@ -43074,16 +43066,16 @@
         <v>3432100</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C80" s="5">
         <v>39934.114583333336</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F80" s="7">
         <v>102</v>
@@ -43100,16 +43092,16 @@
         <v>3432100</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" s="5">
         <v>39934.5</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F81" s="7">
         <v>81</v>
@@ -43126,16 +43118,16 @@
         <v>3432100</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C82" s="5">
         <v>39934.5625</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F82" s="7">
         <v>86</v>
@@ -43152,16 +43144,16 @@
         <v>3432100</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" s="5">
         <v>39934.59375</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F83" s="7">
         <v>110</v>
@@ -43181,16 +43173,16 @@
         <v>3432100</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84" s="5">
         <v>39934.614583333336</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F84" s="7">
         <v>120</v>
@@ -43210,16 +43202,16 @@
         <v>3432100</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C85" s="5">
         <v>39934.625</v>
       </c>
       <c r="D85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F85" s="7">
         <v>171</v>
@@ -43236,16 +43228,16 @@
         <v>3432100</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="5">
         <v>39934.645833333336</v>
       </c>
       <c r="D86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F86" s="7">
         <v>169</v>
@@ -43262,16 +43254,16 @@
         <v>3432100</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" s="5">
         <v>39934.65625</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F87" s="7">
         <v>249</v>
@@ -43288,16 +43280,16 @@
         <v>3432100</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="5">
         <v>39934.666666666664</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F88" s="7">
         <v>430</v>
@@ -43317,16 +43309,16 @@
         <v>3432100</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C89" s="5">
         <v>39934.6875</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F89" s="7">
         <v>412</v>
@@ -43343,16 +43335,16 @@
         <v>3432100</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90" s="5">
         <v>39934.760416666664</v>
       </c>
       <c r="D90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F90" s="7">
         <v>620</v>
@@ -43369,16 +43361,16 @@
         <v>3432100</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C91" s="5">
         <v>39934.8125</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91" s="7">
         <v>433</v>
@@ -43395,16 +43387,16 @@
         <v>3432100</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C92" s="5">
         <v>39934.84375</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F92" s="7">
         <v>363</v>
@@ -43421,16 +43413,16 @@
         <v>3432100</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C93" s="5">
         <v>39934.927083333336</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F93" s="7">
         <v>338</v>
@@ -43447,16 +43439,16 @@
         <v>3432100</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="5">
         <v>39935.072916666664</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F94" s="7">
         <v>184</v>
@@ -43476,16 +43468,16 @@
         <v>3432100</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C95" s="5">
         <v>39935.291666666664</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F95" s="7">
         <v>184</v>
@@ -43502,16 +43494,16 @@
         <v>3432100</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" s="5">
         <v>39935.302083333336</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F96" s="7">
         <v>165</v>
@@ -43531,16 +43523,16 @@
         <v>3432100</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C97" s="5">
         <v>39935.3125</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F97" s="7">
         <v>255</v>
@@ -43557,16 +43549,16 @@
         <v>3432100</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98" s="5">
         <v>39935.333333333336</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" s="7">
         <v>446</v>
@@ -43583,16 +43575,16 @@
         <v>3432100</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" s="5">
         <v>39935.385416666664</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F99" s="7">
         <v>638</v>
@@ -43609,16 +43601,16 @@
         <v>3432100</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C100" s="5">
         <v>39935.479166666664</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F100" s="7">
         <v>402</v>
@@ -43635,16 +43627,16 @@
         <v>3432100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C101" s="5">
         <v>39935.729166666664</v>
       </c>
       <c r="D101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F101" s="7">
         <v>237</v>
@@ -43661,16 +43653,16 @@
         <v>3432100</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C102" s="5">
         <v>39941.416666666664</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F102" s="7">
         <v>91</v>
@@ -43687,16 +43679,16 @@
         <v>3432100</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C103" s="5">
         <v>39941.510416666664</v>
       </c>
       <c r="D103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F103" s="7">
         <v>66</v>
@@ -43713,16 +43705,16 @@
         <v>3432100</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C104" s="5">
         <v>39942.28125</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F104" s="7">
         <v>340</v>
@@ -43742,16 +43734,16 @@
         <v>3432100</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C105" s="5">
         <v>39960.958333333336</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F105" s="7">
         <v>19</v>
@@ -43768,16 +43760,16 @@
         <v>3432100</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C106" s="5">
         <v>39961.083333333336</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F106" s="7">
         <v>29</v>
@@ -43794,16 +43786,16 @@
         <v>3432100</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C107" s="5">
         <v>39975.395833333336</v>
       </c>
       <c r="D107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F107" s="7">
         <v>24</v>
@@ -43820,16 +43812,16 @@
         <v>3432100</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" s="5">
         <v>39975.46875</v>
       </c>
       <c r="D108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F108" s="7">
         <v>25</v>
@@ -43846,16 +43838,16 @@
         <v>3432100</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C109" s="5">
         <v>39975.604166666664</v>
       </c>
       <c r="D109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" s="7">
         <v>44</v>
@@ -43872,16 +43864,16 @@
         <v>3432100</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C110" s="5">
         <v>39975.84375</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F110" s="7">
         <v>81</v>
@@ -43898,16 +43890,16 @@
         <v>3432100</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C111" s="5">
         <v>39999.041666666664</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F111" s="7">
         <v>13</v>
@@ -43924,16 +43916,16 @@
         <v>3432100</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C112" s="5">
         <v>40006.75</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F112" s="7">
         <v>13</v>
@@ -43950,16 +43942,16 @@
         <v>3432100</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C113" s="5">
         <v>40007.177083333336</v>
       </c>
       <c r="D113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F113" s="7">
         <v>39</v>
@@ -43976,16 +43968,16 @@
         <v>3432100</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="5">
         <v>40007.197916666664</v>
       </c>
       <c r="D114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F114" s="7">
         <v>79</v>
@@ -44002,16 +43994,16 @@
         <v>3432100</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" s="5">
         <v>40007.291666666664</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F115" s="7">
         <v>87</v>
@@ -44028,16 +44020,16 @@
         <v>3432100</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116" s="5">
         <v>40007.375</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F116" s="7">
         <v>101</v>
@@ -44054,16 +44046,16 @@
         <v>3432100</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" s="5">
         <v>40007.5</v>
       </c>
       <c r="D117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F117" s="7">
         <v>118</v>
@@ -44080,16 +44072,16 @@
         <v>3432100</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C118" s="5">
         <v>40007.833333333336</v>
       </c>
       <c r="D118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F118" s="7">
         <v>88</v>
@@ -44106,16 +44098,16 @@
         <v>3432100</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="5">
         <v>40016.822916666664</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F119" s="7">
         <v>17</v>
@@ -44132,16 +44124,16 @@
         <v>3432100</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C120" s="5">
         <v>40022.677083333336</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F120" s="7">
         <v>22</v>
@@ -44158,16 +44150,16 @@
         <v>3432100</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" s="5">
         <v>40022.760416666664</v>
       </c>
       <c r="D121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F121" s="7">
         <v>118</v>
@@ -44184,16 +44176,16 @@
         <v>3432100</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C122" s="5">
         <v>40022.833333333336</v>
       </c>
       <c r="D122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F122" s="7">
         <v>194</v>
@@ -44210,16 +44202,16 @@
         <v>3432100</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123" s="5">
         <v>40022.864583333336</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F123" s="7">
         <v>252</v>
@@ -44236,16 +44228,16 @@
         <v>3432100</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C124" s="5">
         <v>40024.177083333336</v>
       </c>
       <c r="D124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F124" s="7">
         <v>153</v>
@@ -44262,16 +44254,16 @@
         <v>3432100</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C125" s="5">
         <v>40024.53125</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F125" s="7">
         <v>52</v>
@@ -44288,16 +44280,16 @@
         <v>3432100</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C126" s="5">
         <v>40029.895833333336</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F126" s="7">
         <v>54</v>
@@ -44314,16 +44306,16 @@
         <v>3432100</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C127" s="5">
         <v>40029.916666666664</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F127" s="7">
         <v>36</v>
@@ -44340,16 +44332,16 @@
         <v>3432100</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C128" s="5">
         <v>40030.083333333336</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F128" s="7">
         <v>30</v>
@@ -44366,16 +44358,16 @@
         <v>3432100</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C129" s="5">
         <v>40030.395833333336</v>
       </c>
       <c r="D129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F129" s="7">
         <v>37</v>
@@ -44392,16 +44384,16 @@
         <v>3432100</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C130" s="5">
         <v>40037.197916666664</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F130" s="7">
         <v>159</v>
@@ -44421,16 +44413,16 @@
         <v>3432100</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C131" s="5">
         <v>40045.583333333336</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F131" s="7">
         <v>25</v>
@@ -44450,16 +44442,16 @@
         <v>3432100</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" s="5">
         <v>40085.395833333336</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F132" s="7">
         <v>8</v>
@@ -44491,16 +44483,16 @@
         <v>3432100</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C133" s="5">
         <v>40085.396527777775</v>
       </c>
       <c r="D133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F133" s="7">
         <v>32</v>
@@ -44532,16 +44524,16 @@
         <v>3432100</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C134" s="5">
         <v>40101.420138888891</v>
       </c>
       <c r="D134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" s="7">
         <v>600</v>
@@ -44564,16 +44556,16 @@
         <v>3432100</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C135" s="5">
         <v>40101.427083333336</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F135" s="7">
         <v>495</v>
@@ -44596,16 +44588,16 @@
         <v>3432100</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C136" s="5">
         <v>40101.430555555555</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F136" s="7">
         <v>633</v>
@@ -44628,16 +44620,16 @@
         <v>3432100</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C137" s="5">
         <v>40101.465277777781</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F137" s="7">
         <v>927</v>
@@ -44660,16 +44652,16 @@
         <v>3432100</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C138" s="5">
         <v>40101.489583333336</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F138" s="7">
         <v>4210</v>
@@ -44692,16 +44684,16 @@
         <v>3432100</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" s="5">
         <v>40155.715277777781</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F139" s="7">
         <v>48</v>
@@ -44724,16 +44716,16 @@
         <v>3432100</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C140" s="5">
         <v>40155.71875</v>
       </c>
       <c r="D140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F140" s="7">
         <v>87</v>
@@ -44756,16 +44748,16 @@
         <v>3432100</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C141" s="5">
         <v>40155.732638888891</v>
       </c>
       <c r="D141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F141" s="7">
         <v>157</v>
@@ -44788,16 +44780,16 @@
         <v>3432100</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C142" s="5">
         <v>40155.770833333336</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F142" s="7">
         <v>138</v>
@@ -44820,16 +44812,16 @@
         <v>3432100</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C143" s="5">
         <v>40155.840277777781</v>
       </c>
       <c r="D143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F143" s="7">
         <v>116</v>
@@ -44849,16 +44841,16 @@
         <v>3432100</v>
       </c>
       <c r="B144" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C144" s="5">
         <v>40155.892361111109</v>
       </c>
       <c r="D144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F144" s="7">
         <v>173</v>
@@ -44881,16 +44873,16 @@
         <v>3432100</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C145" s="5">
         <v>40156.017361111109</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F145" s="7">
         <v>173</v>
@@ -44913,16 +44905,16 @@
         <v>3432100</v>
       </c>
       <c r="B146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C146" s="5">
         <v>40156.0625</v>
       </c>
       <c r="D146" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F146" s="7">
         <v>148</v>
@@ -44945,16 +44937,16 @@
         <v>3432100</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C147" s="5">
         <v>40157.371527777781</v>
       </c>
       <c r="D147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F147" s="7">
         <v>28</v>
@@ -44977,16 +44969,16 @@
         <v>3432100</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" s="5">
         <v>40160.340277777781</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E148" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F148" s="7">
         <v>541</v>
@@ -45009,16 +45001,16 @@
         <v>3432100</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C149" s="5">
         <v>40195.215277777781</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F149" s="7">
         <v>521</v>
@@ -45041,16 +45033,16 @@
         <v>3432100</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C150" s="5">
         <v>40195.260416666664</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E150" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F150" s="7">
         <v>493</v>
@@ -45073,16 +45065,16 @@
         <v>3432100</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C151" s="5">
         <v>40195.347222222219</v>
       </c>
       <c r="D151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F151" s="7">
         <v>426</v>
@@ -45105,16 +45097,16 @@
         <v>3432100</v>
       </c>
       <c r="B152" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C152" s="5">
         <v>40195.420138888891</v>
       </c>
       <c r="D152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F152" s="7">
         <v>738</v>
@@ -45137,16 +45129,16 @@
         <v>3432100</v>
       </c>
       <c r="B153" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C153" s="5">
         <v>40195.684027777781</v>
       </c>
       <c r="D153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E153" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F153" s="7">
         <v>382</v>
@@ -45169,16 +45161,16 @@
         <v>3432100</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C154" s="5">
         <v>40195.777777777781</v>
       </c>
       <c r="D154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F154" s="7">
         <v>267</v>
@@ -45201,16 +45193,16 @@
         <v>3432100</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C155" s="5">
         <v>40199.4375</v>
       </c>
       <c r="D155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F155" s="7">
         <v>76</v>
@@ -45233,16 +45225,16 @@
         <v>3432100</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C156" s="5">
         <v>40199.447916666664</v>
       </c>
       <c r="D156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F156" s="7">
         <v>87</v>
@@ -45265,16 +45257,16 @@
         <v>3432100</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C157" s="5">
         <v>40213.934027777781</v>
       </c>
       <c r="D157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F157" s="7">
         <v>82</v>
@@ -45297,16 +45289,16 @@
         <v>3432100</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C158" s="5">
         <v>40214.173611111109</v>
       </c>
       <c r="D158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F158" s="7">
         <v>282</v>
@@ -45329,16 +45321,16 @@
         <v>3432100</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" s="5">
         <v>40214.28125</v>
       </c>
       <c r="D159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F159" s="7">
         <v>123</v>
@@ -45361,16 +45353,16 @@
         <v>3432100</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" s="5">
         <v>40214.517361111109</v>
       </c>
       <c r="D160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F160" s="7">
         <v>85</v>
@@ -45393,16 +45385,16 @@
         <v>3432100</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C161" s="5">
         <v>40214.569444444445</v>
       </c>
       <c r="D161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F161" s="7">
         <v>215</v>
@@ -45425,16 +45417,16 @@
         <v>3432100</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C162" s="5">
         <v>40227.577777777777</v>
       </c>
       <c r="D162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F162" s="7">
         <v>13</v>
@@ -45457,16 +45449,16 @@
         <v>3432100</v>
       </c>
       <c r="B163" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="5">
         <v>40227.57916666667</v>
       </c>
       <c r="D163" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E163" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F163" s="7">
         <v>7</v>
@@ -45489,16 +45481,16 @@
         <v>3432100</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C164" s="5">
         <v>40227.580555555556</v>
       </c>
       <c r="D164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F164" s="7">
         <v>7</v>
@@ -45521,16 +45513,16 @@
         <v>3432100</v>
       </c>
       <c r="B165" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C165" s="5">
         <v>40227.581944444442</v>
       </c>
       <c r="D165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F165" s="7">
         <v>6</v>
@@ -45553,16 +45545,16 @@
         <v>3432100</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C166" s="5">
         <v>40292.621527777781</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F166" s="7">
         <v>726</v>
@@ -45582,16 +45574,16 @@
         <v>3432100</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C167" s="5">
         <v>40292.649305555555</v>
       </c>
       <c r="D167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F167" s="7">
         <v>455</v>
@@ -45611,16 +45603,16 @@
         <v>3432100</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C168" s="5">
         <v>40416.45416666667</v>
       </c>
       <c r="D168" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F168" s="7">
         <v>12</v>
@@ -45640,16 +45632,16 @@
         <v>3432100</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C169" s="5">
         <v>40416.454861111109</v>
       </c>
       <c r="D169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F169" s="7">
         <v>37</v>
@@ -45669,16 +45661,16 @@
         <v>3432100</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C170" s="5">
         <v>40505.819444444445</v>
       </c>
       <c r="D170" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E170" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F170" s="7">
         <v>42</v>
@@ -45707,16 +45699,16 @@
         <v>3432100</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C171" s="5">
         <v>40506.118055555555</v>
       </c>
       <c r="D171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E171" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F171" s="7">
         <v>16</v>
@@ -45745,16 +45737,16 @@
         <v>3432100</v>
       </c>
       <c r="B172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C172" s="5">
         <v>40744.394444444442</v>
       </c>
       <c r="D172" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E172" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F172" s="7">
         <v>6</v>
@@ -45783,16 +45775,16 @@
         <v>3432100</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C173" s="5">
         <v>40925.739583333336</v>
       </c>
       <c r="D173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F173" s="7">
         <v>352</v>
@@ -45821,16 +45813,16 @@
         <v>3432100</v>
       </c>
       <c r="B174" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C174" s="5">
         <v>40925.96875</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F174" s="7">
         <v>163</v>
@@ -45859,16 +45851,16 @@
         <v>3432100</v>
       </c>
       <c r="B175" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C175" s="5">
         <v>40929.107638888891</v>
       </c>
       <c r="D175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F175" s="7">
         <v>373</v>
@@ -45897,16 +45889,16 @@
         <v>3432100</v>
       </c>
       <c r="B176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C176" s="5">
         <v>40929.204861111109</v>
       </c>
       <c r="D176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F176" s="7">
         <v>823</v>
@@ -45935,16 +45927,16 @@
         <v>3432100</v>
       </c>
       <c r="B177" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C177" s="5">
         <v>40929.274305555555</v>
       </c>
       <c r="D177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F177" s="7">
         <v>689</v>
@@ -45973,16 +45965,16 @@
         <v>3432100</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C178" s="5">
         <v>40929.461805555555</v>
       </c>
       <c r="D178" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E178" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F178" s="7">
         <v>335</v>
@@ -46014,16 +46006,16 @@
         <v>3432100</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C179" s="5">
         <v>40929.725694444445</v>
       </c>
       <c r="D179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F179" s="7">
         <v>135</v>
@@ -46052,16 +46044,16 @@
         <v>3432100</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C180" s="5">
         <v>40958.59375</v>
       </c>
       <c r="D180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F180" s="7">
         <v>34</v>
@@ -46090,16 +46082,16 @@
         <v>3432100</v>
       </c>
       <c r="B181" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C181" s="5">
         <v>40958.600694444445</v>
       </c>
       <c r="D181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F181" s="7">
         <v>28</v>
@@ -46128,16 +46120,16 @@
         <v>3432100</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C182" s="5">
         <v>40958.607638888891</v>
       </c>
       <c r="D182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F182" s="7">
         <v>28</v>
@@ -46166,16 +46158,16 @@
         <v>3432100</v>
       </c>
       <c r="B183" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C183" s="5">
         <v>41254.375</v>
       </c>
       <c r="D183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E183" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F183" s="7">
         <v>99</v>
@@ -46202,16 +46194,16 @@
         <v>3432100</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C184" s="5">
         <v>41283.711805555555</v>
       </c>
       <c r="D184" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E184" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F184" s="7">
         <v>186</v>
@@ -46238,16 +46230,16 @@
         <v>3432100</v>
       </c>
       <c r="B185" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C185" s="5">
         <v>41287.739583333336</v>
       </c>
       <c r="D185" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E185" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F185" s="7">
         <v>1010</v>
@@ -46274,16 +46266,16 @@
         <v>3432100</v>
       </c>
       <c r="B186" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C186" s="5">
         <v>41304.611111111109</v>
       </c>
       <c r="D186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E186" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F186" s="7">
         <v>256</v>
@@ -46310,16 +46302,16 @@
         <v>3432100</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C187" s="5">
         <v>41304.625</v>
       </c>
       <c r="D187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F187" s="7">
         <v>237</v>
@@ -46346,16 +46338,16 @@
         <v>3432100</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C188" s="5">
         <v>41304.708333333336</v>
       </c>
       <c r="D188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F188" s="7">
         <v>231</v>
@@ -46382,16 +46374,16 @@
         <v>3432100</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C189" s="5">
         <v>41304.791666666664</v>
       </c>
       <c r="D189" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E189" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F189" s="7">
         <v>195</v>
@@ -46418,16 +46410,16 @@
         <v>3432100</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C190" s="5">
         <v>41305</v>
       </c>
       <c r="D190" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E190" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F190" s="7">
         <v>115</v>
@@ -46454,16 +46446,16 @@
         <v>3432100</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C191" s="5">
         <v>41305.208333333336</v>
       </c>
       <c r="D191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F191" s="7">
         <v>100</v>
@@ -46490,16 +46482,16 @@
         <v>3432100</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C192" s="5">
         <v>41305.291666666664</v>
       </c>
       <c r="D192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F192" s="7">
         <v>100</v>
@@ -46526,16 +46518,16 @@
         <v>3432100</v>
       </c>
       <c r="B193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C193" s="5">
         <v>41305.375</v>
       </c>
       <c r="D193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F193" s="7">
         <v>82</v>
@@ -46562,16 +46554,16 @@
         <v>3432100</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C194" s="5">
         <v>41638.438194444447</v>
       </c>
       <c r="D194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F194" s="7">
         <v>9</v>
@@ -46592,16 +46584,16 @@
         <v>3432100</v>
       </c>
       <c r="B195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C195" s="5">
         <v>41638.439583333333</v>
       </c>
       <c r="D195" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E195" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F195" s="7">
         <v>16</v>
